--- a/xlsx/美国之音_intext.xlsx
+++ b/xlsx/美国之音_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="748">
   <si>
     <t>美国之音</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国之音</t>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国之音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%A3%E4%BC%A0</t>
@@ -113,9 +113,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>美國國會大廈</t>
+    <t>美国国会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%88%98%E6%97%B6%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E7%88%BE%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>傑拉爾德·福特</t>
+    <t>杰拉尔德·福特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>美國法律</t>
+    <t>美国法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>蒙語</t>
+    <t>蒙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E7%BD%B2</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%A0%B4%E7%9B%B4%E6%92%AD</t>
   </si>
   <si>
-    <t>現場直播</t>
+    <t>现场直播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BB%A3%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>中廣新聞網</t>
+    <t>中广新闻网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%AF%86%E6%97%B6%E5%88%BB</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%8C%AF%E5%81%89</t>
   </si>
   <si>
-    <t>吳振偉</t>
+    <t>吴振伟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%BA%B3%C2%B7%E7%BD%97%E6%8B%89%E5%B7%B4%E5%85%8B</t>
@@ -419,25 +416,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8F%AF%E7%A4%BE</t>
   </si>
   <si>
-    <t>新華社</t>
+    <t>新华社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%B8%AD%E5%A4%AE%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>中國中央電視台</t>
+    <t>中国中央电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>人民日報</t>
+    <t>人民日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BA%9E%E6%B4%B2%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>自由亞洲電台</t>
+    <t>自由亚洲电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E7%BD%97%E8%8E%AB%E8%AF%AD</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E7%B4%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>修納語</t>
+    <t>修纳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E8%AF%AD</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%A0%BC%E5%88%A9%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>提格利尼亞語</t>
+    <t>提格利尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AF%AD</t>
@@ -731,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PBS%E6%96%B0%E8%81%9E%E4%B8%80%E5%B0%8F%E6%99%82</t>
   </si>
   <si>
-    <t>PBS新聞一小時</t>
+    <t>PBS新闻一小时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E4%B8%8E%E6%95%99%E8%82%B2%E4%BA%A4%E6%B5%81%E6%B3%95%E6%A1%88</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國廣播公司</t>
+    <t>英国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -803,9 +800,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BA%9A%E6%B4%B2%E7%94%B5%E5%8F%B0</t>
   </si>
   <si>
-    <t>自由亚洲电台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
   </si>
   <si>
@@ -821,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>發音</t>
+    <t>发音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%B3%95</t>
@@ -833,9 +827,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%8E%E7%A4%BE</t>
   </si>
   <si>
-    <t>新华社</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A4%AB%C2%B7%E7%BA%B3%E5%BE%B7</t>
   </si>
   <si>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E6%83%85%E6%AC%8A</t>
   </si>
   <si>
-    <t>知情權</t>
+    <t>知情权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
@@ -887,13 +878,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%B1%B1%E8%8E%8A</t>
   </si>
   <si>
-    <t>國會山莊</t>
+    <t>国会山庄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%AC%9B</t>
   </si>
   <si>
-    <t>演講</t>
+    <t>演讲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -917,9 +908,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國務院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E6%9D%8E%C2%B7%E9%98%BF%E7%B1%B3%E8%92%82%E5%A5%87</t>
   </si>
   <si>
@@ -959,9 +947,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%AD%E5%A4%AE%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
-    <t>中国中央电视台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%9C%E7%AE%A1%E4%B9%90%E9%98%9F</t>
   </si>
   <si>
@@ -995,21 +980,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>風傳媒</t>
+    <t>风传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E4%B9%8B%E8%81%B2%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>希望之聲國際廣播電台</t>
+    <t>希望之声国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B9%8B%E9%9F%B3</t>
   </si>
   <si>
-    <t>美國之音</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
@@ -1037,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%B2%99%E7%88%BE%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>馬沙爾電台</t>
+    <t>马沙尔电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%90%A8%E8%BF%AA%E7%94%B5%E5%8F%B0</t>
@@ -1049,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BC%8A%E6%8B%89%E5%85%8B%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>自由伊拉克電台</t>
+    <t>自由伊拉克电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%92%82%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>馬蒂廣播電視台</t>
+    <t>马蒂广播电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1103,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%87%BA</t>
   </si>
   <si>
-    <t>中央廣播電臺</t>
+    <t>中央广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1133,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/KBS%E9%9F%93%E6%B0%91%E6%97%8F%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>KBS韓民族放送</t>
+    <t>KBS韩民族放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8C%97%E9%9F%93%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>自由北韓放送</t>
+    <t>自由北韩放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%9C%9D%E9%B2%9C%E5%B9%BF%E6%92%AD</t>
@@ -1151,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93%E6%94%B9%E9%9D%A9%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>北韓改革放送</t>
+    <t>北韩改革放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B7%E9%87%8E%E4%B9%8B%E5%A3%B0</t>
@@ -1193,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8C%97%E9%9F%93%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>開放北韓放送</t>
+    <t>开放北韩放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E4%B9%8B%E5%A3%B0</t>
@@ -1205,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A3%A4%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>平壤廣播電台</t>
+    <t>平壤广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E4%B8%80%E7%9A%84%E5%9B%9E%E5%A3%B0%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1217,25 +1199,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E5%9C%8B%E4%B9%8B%E8%81%B2%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>救國之聲廣播電台</t>
+    <t>救国之声广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>蒙古之聲</t>
+    <t>蒙古之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>越南之聲</t>
+    <t>越南之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0%E5%9C%8B%E9%9A%9B%E8%87%BA</t>
   </si>
   <si>
-    <t>泰國廣播電台國際臺</t>
+    <t>泰国广播电台国际台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E5%9B%BD%E5%AE%B6%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1259,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>馬來西亞之聲</t>
+    <t>马来西亚之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1277,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>越南廣播電台</t>
+    <t>越南广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E4%BA%9A%E9%9D%A9%E5%91%BD%E4%B9%8B%E5%A3%B0%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1307,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>巴基斯坦廣播公司</t>
+    <t>巴基斯坦广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E4%BB%80%E5%B9%B2%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1331,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>土耳其之聲</t>
+    <t>土耳其之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1361,19 +1343,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E5%9C%8B%E9%9A%9B%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司國際頻道</t>
+    <t>英国广播公司国际频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%89%E8%BB%8D%E5%BB%A3%E6%92%AD%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>英國三軍廣播服務</t>
+    <t>英国三军广播服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>愛爾蘭廣播電視</t>
+    <t>爱尔兰广播电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1397,13 +1379,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>瑞士國際廣播電台</t>
+    <t>瑞士国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%BB%A3%E6%92%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>奧地利廣播集團</t>
+    <t>奥地利广播集团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radio_Slovakia_International</t>
@@ -1463,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>梵蒂岡廣播電台</t>
+    <t>梵蒂冈广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>塞爾維亞國際廣播電台</t>
+    <t>塞尔维亚国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1559,9 +1541,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E4%B9%8B%E5%A3%B0%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
   </si>
   <si>
-    <t>希望之声国际广播电台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%B8%AD%E5%B9%BF%E6%92%AD</t>
   </si>
   <si>
@@ -1595,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>新西蘭國際廣播電台</t>
+    <t>新西兰国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CVC%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1625,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>國際新聞頻道</t>
+    <t>国际新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%8D%AB%E6%98%9F%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -1685,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E8%A1%9B%E8%A6%96%E8%B3%87%E8%A8%8A%E5%8F%B0</t>
   </si>
   <si>
-    <t>鳳凰衛視資訊台</t>
+    <t>凤凰卫视资讯台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E6%96%B0%E9%97%BB%E5%8F%B0</t>
@@ -1703,73 +1682,73 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>東森新聞台</t>
+    <t>东森新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E8%B2%A1%E7%B6%93%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>東森財經新聞台</t>
+    <t>东森财经新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AB%8B%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>三立新聞台</t>
+    <t>三立新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A9%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>中天新聞台</t>
+    <t>中天新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>民視新聞台</t>
+    <t>民视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E4%BB%A3%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>年代新聞台</t>
+    <t>年代新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%87%A1%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>非凡新聞台</t>
+    <t>非凡新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B9%E9%9B%BB%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>壹電視新聞台</t>
+    <t>壹电视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>台視新聞台</t>
+    <t>台视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%A6%96%E6%96%B0%E8%81%9E%E8%B3%87%E8%A8%8A%E5%8F%B0</t>
   </si>
   <si>
-    <t>華視新聞資訊台</t>
+    <t>华视新闻资讯台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>中視新聞台</t>
+    <t>中视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E4%BA%9E%E6%B4%B2%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>東森亞洲新聞台</t>
+    <t>东森亚洲新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AB%8BiNEWS%E5%8F%B0</t>
@@ -1781,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%A6%96%E8%B2%A1%E7%B6%93%E5%8F%B0</t>
   </si>
   <si>
-    <t>台視財經台</t>
+    <t>台视财经台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHK_World_TV</t>
@@ -1793,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93CNBC</t>
   </si>
   <si>
-    <t>日經CNBC</t>
+    <t>日经CNBC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Press_TV</t>
@@ -1805,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/TVBS%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>TVBS新聞台</t>
+    <t>TVBS新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YTN</t>
@@ -1823,25 +1802,25 @@
     <t>https://zh.wikipedia.org/wiki/Now%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>Now新聞台</t>
+    <t>Now新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>有線新聞台</t>
+    <t>有线新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B6%AB%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>無綫新聞台</t>
+    <t>无线新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TVB%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>TVB新聞台</t>
+    <t>TVB新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E6%98%8E%E6%96%B0%E9%97%BB</t>
@@ -1853,13 +1832,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E4%B8%96%E7%95%8C%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司世界新聞頻道</t>
+    <t>英国广播公司世界新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司新聞台</t>
+    <t>英国广播公司新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E6%96%B0%E9%97%BB%E5%8F%B0</t>
@@ -1919,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>彭博電視</t>
+    <t>彭博电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNBC</t>
@@ -1943,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A3%AB%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>霍士新聞頻道</t>
+    <t>霍士新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%94%E7%A4%BE%E7%94%B5%E8%A7%86%E6%96%B0%E9%97%BB%E7%BD%B2</t>
@@ -1961,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E9%9B%BB%E8%A6%96%E5%8F%B0_(%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>南方電視台 (拉丁美洲)</t>
+    <t>南方电视台 (拉丁美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -1979,19 +1958,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -2033,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -2051,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -2069,13 +2048,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -2099,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -2135,13 +2114,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -2171,19 +2150,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -2207,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RealClearPolitics</t>
@@ -2225,7 +2204,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -2237,13 +2216,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -2267,19 +2246,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3093,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>149</v>
@@ -3140,10 +3119,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3169,10 +3148,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>29</v>
@@ -3198,10 +3177,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3227,10 +3206,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3256,10 +3235,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -3285,10 +3264,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>11</v>
@@ -3314,10 +3293,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3343,10 +3322,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3372,10 +3351,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -3401,10 +3380,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -3430,10 +3409,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3459,10 +3438,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3488,10 +3467,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>14</v>
@@ -3517,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3546,10 +3525,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3575,10 +3554,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3604,10 +3583,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3633,10 +3612,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3662,10 +3641,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3691,10 +3670,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>49</v>
@@ -3720,10 +3699,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -3749,10 +3728,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -3778,10 +3757,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3807,10 +3786,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3836,10 +3815,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3865,10 +3844,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3894,10 +3873,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>7</v>
@@ -3923,10 +3902,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3952,10 +3931,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3981,10 +3960,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -4010,10 +3989,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4039,10 +4018,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -4068,10 +4047,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4097,10 +4076,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4126,10 +4105,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4155,10 +4134,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4184,10 +4163,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4213,10 +4192,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4242,10 +4221,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4271,10 +4250,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4300,10 +4279,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4329,10 +4308,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4358,10 +4337,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4387,10 +4366,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4416,10 +4395,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -4445,10 +4424,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4474,10 +4453,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4503,10 +4482,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4532,10 +4511,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4561,10 +4540,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4590,10 +4569,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4619,10 +4598,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4648,10 +4627,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4677,10 +4656,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4706,10 +4685,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4735,10 +4714,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4764,10 +4743,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4793,10 +4772,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4822,10 +4801,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4851,10 +4830,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4880,10 +4859,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4909,10 +4888,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4938,10 +4917,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4967,10 +4946,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4996,10 +4975,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5025,10 +5004,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5054,10 +5033,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5083,10 +5062,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5112,10 +5091,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5141,10 +5120,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5170,10 +5149,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5199,10 +5178,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5228,10 +5207,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5257,10 +5236,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5286,10 +5265,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5315,10 +5294,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5344,10 +5323,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5373,10 +5352,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5402,10 +5381,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5431,10 +5410,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5460,10 +5439,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5489,10 +5468,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5518,10 +5497,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5547,10 +5526,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5576,10 +5555,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5605,10 +5584,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5634,10 +5613,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5663,10 +5642,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5692,10 +5671,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5721,10 +5700,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5750,10 +5729,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5779,10 +5758,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5808,10 +5787,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5837,10 +5816,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5866,10 +5845,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5895,10 +5874,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5924,10 +5903,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5953,10 +5932,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5982,10 +5961,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6011,10 +5990,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6040,10 +6019,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6069,10 +6048,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6098,10 +6077,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6127,10 +6106,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6156,10 +6135,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6185,10 +6164,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6214,10 +6193,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6243,10 +6222,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6272,10 +6251,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6301,10 +6280,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6330,10 +6309,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -6359,10 +6338,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6388,10 +6367,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -6417,10 +6396,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6446,10 +6425,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6475,10 +6454,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>11</v>
@@ -6504,10 +6483,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6533,10 +6512,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6562,10 +6541,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6591,10 +6570,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -6620,10 +6599,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6649,10 +6628,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6678,10 +6657,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6707,10 +6686,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6736,10 +6715,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6765,10 +6744,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6794,10 +6773,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6823,10 +6802,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6852,10 +6831,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6881,10 +6860,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6910,10 +6889,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6939,10 +6918,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6968,10 +6947,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6997,10 +6976,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7026,10 +7005,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7055,10 +7034,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7084,10 +7063,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7113,10 +7092,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -7142,10 +7121,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7171,10 +7150,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7200,10 +7179,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7229,10 +7208,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7258,10 +7237,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7287,10 +7266,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>26</v>
@@ -7316,10 +7295,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>4</v>
@@ -7345,10 +7324,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7374,10 +7353,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7403,10 +7382,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7461,10 +7440,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>31</v>
@@ -7490,10 +7469,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7519,10 +7498,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7548,10 +7527,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7577,10 +7556,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7606,10 +7585,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7635,10 +7614,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7664,10 +7643,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7693,10 +7672,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7722,10 +7701,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>14</v>
@@ -7751,10 +7730,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" t="s">
         <v>35</v>
-      </c>
-      <c r="F177" t="s">
-        <v>36</v>
       </c>
       <c r="G177" t="n">
         <v>11</v>
@@ -7780,10 +7759,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>28</v>
@@ -7809,10 +7788,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7838,10 +7817,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7867,10 +7846,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7896,10 +7875,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7925,10 +7904,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7954,10 +7933,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7983,10 +7962,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8012,10 +7991,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8041,10 +8020,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8070,10 +8049,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8099,10 +8078,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8128,10 +8107,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8157,10 +8136,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8186,10 +8165,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8215,10 +8194,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8244,10 +8223,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8273,10 +8252,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8302,10 +8281,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8331,10 +8310,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8360,10 +8339,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8389,10 +8368,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8418,10 +8397,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8447,10 +8426,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8476,10 +8455,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8505,10 +8484,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8534,10 +8513,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8563,10 +8542,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8592,10 +8571,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8621,10 +8600,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8650,10 +8629,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8679,10 +8658,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8708,10 +8687,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8737,10 +8716,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8766,10 +8745,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8795,10 +8774,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8824,10 +8803,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8853,10 +8832,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8882,10 +8861,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8911,10 +8890,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8940,10 +8919,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8969,10 +8948,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8998,10 +8977,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9027,10 +9006,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9056,10 +9035,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9085,10 +9064,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9114,10 +9093,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9143,10 +9122,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9172,10 +9151,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9201,10 +9180,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9230,10 +9209,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9259,10 +9238,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9288,10 +9267,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9317,10 +9296,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9346,10 +9325,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9375,10 +9354,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9404,10 +9383,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9433,10 +9412,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9462,10 +9441,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9491,10 +9470,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9520,10 +9499,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9549,10 +9528,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9578,10 +9557,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9607,10 +9586,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9636,10 +9615,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9665,10 +9644,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9694,10 +9673,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9723,10 +9702,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9752,10 +9731,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9781,10 +9760,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9810,10 +9789,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F248" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9839,10 +9818,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9868,10 +9847,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9897,10 +9876,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9926,10 +9905,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9955,10 +9934,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9984,10 +9963,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10013,10 +9992,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10042,10 +10021,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10071,10 +10050,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10100,10 +10079,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10129,10 +10108,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10158,10 +10137,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10187,10 +10166,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>323</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10216,10 +10195,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10245,10 +10224,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10274,10 +10253,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10303,10 +10282,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10332,10 +10311,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10361,10 +10340,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10390,10 +10369,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10419,10 +10398,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10448,10 +10427,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10477,10 +10456,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10506,10 +10485,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10535,10 +10514,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10564,10 +10543,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10593,10 +10572,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10622,10 +10601,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10651,10 +10630,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10680,10 +10659,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10709,10 +10688,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10738,10 +10717,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10767,10 +10746,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10796,10 +10775,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10825,10 +10804,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10854,10 +10833,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10883,10 +10862,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10912,10 +10891,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10941,10 +10920,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10970,10 +10949,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10999,10 +10978,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11028,10 +11007,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11057,10 +11036,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11086,10 +11065,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11115,10 +11094,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11144,10 +11123,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11173,10 +11152,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11202,10 +11181,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11231,10 +11210,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11260,10 +11239,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11289,10 +11268,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11318,10 +11297,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11347,10 +11326,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11376,10 +11355,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11405,10 +11384,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11434,10 +11413,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11463,10 +11442,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11492,10 +11471,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11521,10 +11500,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11550,10 +11529,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11579,10 +11558,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11608,10 +11587,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11637,10 +11616,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11666,10 +11645,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11695,10 +11674,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11724,10 +11703,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11753,10 +11732,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11782,10 +11761,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11811,10 +11790,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11840,10 +11819,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11869,10 +11848,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11898,10 +11877,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11927,10 +11906,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11956,10 +11935,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11985,10 +11964,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G323" t="n">
         <v>4</v>
@@ -12014,10 +11993,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12043,10 +12022,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12072,10 +12051,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12101,10 +12080,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12130,10 +12109,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12159,10 +12138,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12188,10 +12167,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -12217,10 +12196,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12246,10 +12225,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12275,10 +12254,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12304,10 +12283,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12333,10 +12312,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12362,10 +12341,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12391,10 +12370,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12420,10 +12399,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12449,10 +12428,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12478,10 +12457,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12507,10 +12486,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12536,10 +12515,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12565,10 +12544,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12594,10 +12573,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12623,10 +12602,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12652,10 +12631,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12681,10 +12660,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12710,10 +12689,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12739,10 +12718,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12768,10 +12747,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>130</v>
+      </c>
+      <c r="F350" t="s">
         <v>131</v>
-      </c>
-      <c r="F350" t="s">
-        <v>132</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12797,10 +12776,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12826,10 +12805,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12855,10 +12834,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12884,10 +12863,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12913,10 +12892,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F355" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -12942,10 +12921,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F356" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12971,10 +12950,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13000,10 +12979,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13029,10 +13008,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13058,10 +13037,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13087,10 +13066,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13116,10 +13095,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13145,10 +13124,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F363" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13174,10 +13153,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F364" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13203,10 +13182,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F365" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13232,10 +13211,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F366" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13261,10 +13240,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F367" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13290,10 +13269,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F368" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13319,10 +13298,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F369" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13348,10 +13327,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F370" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13377,10 +13356,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F371" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13406,10 +13385,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F372" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13435,10 +13414,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F373" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13464,10 +13443,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F374" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13493,10 +13472,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F375" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13522,10 +13501,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F376" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13551,10 +13530,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13580,10 +13559,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13609,10 +13588,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13638,10 +13617,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13667,10 +13646,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>236</v>
+      </c>
+      <c r="F381" t="s">
         <v>237</v>
-      </c>
-      <c r="F381" t="s">
-        <v>238</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13696,10 +13675,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F382" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13725,10 +13704,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F383" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13754,10 +13733,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F384" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13783,10 +13762,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F385" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
